--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(P)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(P).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(P)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(P).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,22 +523,126 @@
           <t>Pa</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pachyrhizus
 Pachystachys
-Pachystachys lutea
-Pae
-Paeonia - Renonculacées
+Pachystachys lutea</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Paeonia - Renonculacées
 Paeonia corallina
 Paeonia lactiflora - Pivoine de Chine
-Paeonia officinalis - Pivoine officinale ou « Pivoine des jardins »
-Pal
-Paliurus
+Paeonia officinalis - Pivoine officinale ou « Pivoine des jardins »</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Paliurus
 Paliurus australis - Paliure épine du Christ
-Paloveopsis
-Pan
-Panax
+Paloveopsis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Panax
 Panax ginseng - Ginseng
 Pancratium
 Pancratium maritimum - Lis maritime, Lys de mer, Lys des sables
@@ -555,9 +671,43 @@
 Panicum tuckermani - Panic de Tuckerman
 Panicum virgatum - Panic raide
 Panicum xanthophysum - Panic jaunâtre
-Panurea
-Pap
-Papaver - Papavéracées
+Panurea</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pap</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Papaver - Papavéracées
 Papaver alpinum - Pavot des Alpes
 Papaver argemone - Pavot argémone
 Papaver bracteatum - Pavot à bractées
@@ -565,9 +715,43 @@
 Papaver nudicaule - Pavot d'Islande
 Papaver orientale - Pavot d'Orient
 Papaver rhoeas - Coquelicot
-Papaver somniferum - Pavot à opium
-Par
-Paradisea - Liliacées
+Papaver somniferum - Pavot à opium</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Par</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Paradisea - Liliacées
 Paradisia liliastrum - Paradisie ou Lis des Alpes
 Paramachaerium
 Parapiptadenia
@@ -589,17 +773,85 @@
 Parrotiopsis
 Parrotiopsis jacquemontiana
 Parthenium
-Parthenium aureum
-Pas
-Passiflora - Passifloracées
+Parthenium aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pas</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Passiflora - Passifloracées
 Passiflora incarnata - Passiflore
 Passiflora caerulea - Passiflore ou Fleur de la passion
 Passiflora edulis - Passiflore
 Passiflora quadrangularis - Passiflore
 Pastinaca - Apiacées
-Pastinaca sativa - Panais
-Pau
-Paullinia - Sapindacées
+Pastinaca sativa - Panais</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pau</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Paullinia - Sapindacées
 Paullinia cupana - Guarana
 Paulownia
 Paulownia fargesii
@@ -610,37 +862,73 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Pe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pedicularis - Scrophulariacées
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Pedicularis - Scrophulariacées
 Pedicularis palustris - Pédiculaire des marais
-Pedicularis verticillata - Pédiculaire verticillée
-Pel
-Pelargonium - Géraniacées
+Pedicularis verticillata - Pédiculaire verticillée</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pe</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pel</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Pelargonium - Géraniacées
 Pelargonium grandiflorum - Géranium élégant
 Pelargonium hederaefolium
 Pelargonium peltatum - Géranium lierre
@@ -651,35 +939,205 @@
 Peltandra virginica
 Peltandra virginica virginica
 Peltogyne
-Peltophorum
-Pen
-Pentaclethra
+Peltophorum</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pe</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pen</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Pentaclethra
 Pentaphylloides
 Pentaphylloides floribunda
-Penstemon - Scrophulariacées
-Pep
-Peperomia
+Penstemon - Scrophulariacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pe</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pep</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Peperomia
 Peperomia caperata
-Peperomia obtusifolia
-Per
-Periandra
+Peperomia obtusifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pe</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Per</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Periandra
 Pericallis
 Pericallis hybrida - Cinéraire hybride
 Perilla
 Perilla frutescens - Pérille de Nankin
 Pernettya
 Pernettya mucronata
-Persicaria, alias Polygonum
-Pet
-Petaladenium
+Persicaria, alias Polygonum</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pe</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Petaladenium
 Petroselinum - Apiacées
 Petroselinum sativum ou Carum petroselinum - Persil
 Petunia - Solanacées
 Petunia alba
 Petunia grandiflora - Pétunia à grandes fleurs
-Petunia hybrida
-Peu
-Peucedanum
+Petunia hybrida</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Pe</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Peu</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peucedanum
 Peucedanum schottii - Peucédan de Schott
 Peucedanum austriacum
 Peumus
@@ -688,65 +1146,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Ph</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Écozone paléarctique : plantes à graines par nom scientifique (PH)
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Pi</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Pic
-Picea - Pinacées
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Pic</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Picea - Pinacées
 Picea abies - Épicéa
 Picea alcoquiana
 Picea asperata
@@ -766,19 +1231,155 @@
 Picea smithiana
 Picea sitchensis - Épinette de Sitka
 Picea torano
-Picea wilsonii
-Pie
-Pieris
-Pieris japonica
-Pil
-Pilea
+Picea wilsonii</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pi</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Pie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Pieris
+Pieris japonica</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Pi</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Pil</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Pilea
 Pilea cadierei
-Pilea microphylla - Plante au feu d'artifice
-Pim
-Pimpinella - Ombellifères
-Pimpinella anisum - Anis vert
-Pin
-Pinguicula - Lentibulariacées
+Pilea microphylla - Plante au feu d'artifice</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Pi</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Pim</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Pimpinella - Ombellifères
+Pimpinella anisum - Anis vert</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pi</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Pin</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Pinguicula - Lentibulariacées
 Pinguicula alpina - Grassette des Alpes
 Pinguicula grandiflora - Grassette à grandes fleurs
 Pinguicula vulgaris - Grassette commune
@@ -815,56 +1416,163 @@
 Pinus tabuliformis
 Pinus taiwanensis - Pin de Taiwan
 Pinus thunbergii - Pin de Thunberg
-Pinus wallichiana
-Pip
-Piptatherum
+Pinus wallichiana</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Pi</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Pip</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Piptatherum
 Piptatherum coerulescens (Desf.) P.Beauv.
 Piptatherum miliaceum (L.) Coss.
 Piptatherum paradoxum (L.) P.Beauv.
 Piptatherum virescens (Trin.) Boiss.
-Piptadenia
-Pis
-Pistacia
+Piptadenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pi</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Pis</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Pistacia
 Pistacia lentiscus - Pistachier lentisque
 Pistacia terebinthus - Pistachier térébinthe
 Pistacia vera
 Pisum - Légumineuse
-Pisum sativum - Petit pois
-Pit
-Pithecellobium
+Pisum sativum - Petit pois</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pi</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Pit</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Pithecellobium
 Pittosporum
 Pittosporum tobira - Pittosporum</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Pl</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pla
-Pladycladus
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Pla</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Pladycladus
 Pladycladus orientalis
 Plantago - Plantaginacées
 Plantago afra
@@ -911,9 +1619,43 @@
 Plathymenia
 Platycyamus
 Platymiscium
-Platypodium
-Ple
-Pleioblastus
+Platypodium</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Pl</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Ple</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Pleioblastus
 Pleioblastus amarus
 Pleioblastus argenteostriatus
 Pleioblastus chino
@@ -931,9 +1673,43 @@
 Pleioblastus solidus
 Pleioblastus viridistriatus
 Pleuropogon
-Pleuropogon sabinei
-Plu
-Plumbago - Plumbaginacée
+Pleuropogon sabinei</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pl</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Plu</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plumbago - Plumbaginacée
 Plumbago auriculata - Dentelaire du Cap
 Plumbago capensis
 Plumbago capensis alba
@@ -942,70 +1718,142 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Po</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t xml:space="preserve">Écozone paléarctique : plantes à graines par nom scientifique (PO)
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Pr</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Praesium
-Prasium majus
-Pre
-Prenanthes
-Prenanthes purpurea - Prénanthe pourpre
-Pri
-Primula - Primulacées
+Prasium majus</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pr</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Pre</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Prenanthes
+Prenanthes purpurea - Prénanthe pourpre</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Pr</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Pri</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Primula - Primulacées
 Primula allionii
 Primula apennina
 Primula auricula - Oreille d'ours
@@ -1040,15 +1888,83 @@
 Primula veris - Coucou
 Primula villosa
 Primula vulgaris - Primevère commune
-Primula wulfeniana
-Pro
-Proserpinaca
+Primula wulfeniana</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Pr</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Pro</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Proserpinaca
 Proserpinaca palustris
 Prosopis
 Prostanthera
-Prostanthera cuneata
-Pru
-Prunella - Lamiacées
+Prostanthera cuneata</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Pr</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Pru</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Prunella - Lamiacées
 Prunella grandiflora - Brunelle à grandes fleurs
 Prunella hastifolia - Brunelle à feuilles hastées
 Prunella hyssopifolia - Brunelle à feuilles d'hysope
@@ -1089,34 +2005,39 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Ps</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Pse
-Pseudocydonia
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Pse</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Pseudocydonia
 Pseudocydonia sinensis
 Pseudofumaria - fam. Fumariacées
 Pseudofumaria lutea - Corydale jaune
@@ -1126,85 +2047,194 @@
 Pseudosasa japonica
 Pseudotsuga
 Pseudotsuga japonica
-Pseudotsuga sinensis
-Psi
-Psidium
+Pseudotsuga sinensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Ps</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Psi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Psidium
 Psidium cattleianum - Goyavier de Chine
 Psidium edulis
-Psidium guajava
-Psoil
-Psophocarpus
+Psidium guajava</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Ps</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Psoil</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Psophocarpus
 Psoralea - Fabacées voir Bituminaria
 Psoralea bituminosa - Psoralée bitumineuse</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Pt</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t>Ptelea
 Ptelea trifoliata - Ptéléa trifolié
 Pterocarpus
 Pterocarpus macrocarpus
 Pterodon
-Pterogyne
-Pti
-Ptilostemon
+Pterogyne</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Pt</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Pti</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Ptilostemon
 Ptilostemon casabonae - Ptilostemon</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>Pu</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Puc
-Puccinellia
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Puc</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Puccinellia
 Puccinellia ambigua - Puccinellie ambiguë
 Puccinellia angustata - Puccinellie étroite
 Puccinellia coarctata
@@ -1217,11 +2247,79 @@
 Puccinellia paupercula - Puccinellie maigre
 Puccinellia phryganodes
 Puccinellia tenella
-Puccinellia vahliana
-Pue
-Pueraria
-Pul
-Pulicaria
+Puccinellia vahliana</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Pu</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Pue</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Pueraria</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Pu</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Pul</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Pulicaria
 Pulicaria sicula - Pulicaire de Sicile
 Pulicaria vulgaris - Pulicaire vulgaire
 Pulmonaria
@@ -1232,44 +2330,117 @@
 Pulsatilla japonica - Anémone du Japon
 Pulsatilla nemorosa - Anémone sylvie
 Pulsatilla sulphurea - Anémone soufrée
-Pulsatilla vulgaris - Anémone pulsatille
-Pun
-Punica - Lythracées
+Pulsatilla vulgaris - Anémone pulsatille</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Pu</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Pun</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Punica - Lythracées
 Punica granatum - Grenadier</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Py</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pyc
-Pycnanthemum
-Pycnanthemum virginianum virginianum
-Pyr
-Pyracantha
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Pyc</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Pycnanthemum
+Pycnanthemum virginianum virginianum</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(P)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Py</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Pyr</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pyracantha
 Pyracantha coccinea
 Pyrola
 Pyrola chlorantha
